--- a/BD.xlsx
+++ b/BD.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4632"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4632" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BD TIENDA" sheetId="2" r:id="rId1"/>
     <sheet name="DB SUCAMEC" sheetId="3" r:id="rId2"/>
     <sheet name="BD ANTECEDENTES" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="175">
   <si>
     <t>DNI</t>
   </si>
@@ -74,9 +74,6 @@
     <t>FE_INGRESO</t>
   </si>
   <si>
-    <t>COD_ARMA</t>
-  </si>
-  <si>
     <t>USUARIO</t>
   </si>
   <si>
@@ -525,6 +522,30 @@
   </si>
   <si>
     <t>Fecha de vencimiento de la licencia</t>
+  </si>
+  <si>
+    <t>Código de arma enviado por la tienda</t>
+  </si>
+  <si>
+    <t>SERIE_ARMA</t>
+  </si>
+  <si>
+    <t>char(12)</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>Foreign Key (Tramite)</t>
+  </si>
+  <si>
+    <t>int identity(1,1)</t>
+  </si>
+  <si>
+    <t>PENALES</t>
+  </si>
+  <si>
+    <t>CIUDADANO</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1045,33 +1066,33 @@
     </row>
     <row r="3" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -1080,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1097,13 +1118,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -1112,13 +1133,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -1127,31 +1148,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1159,13 +1180,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="7"/>
     </row>
@@ -1174,13 +1195,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -1189,13 +1210,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -1204,13 +1225,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -1219,43 +1240,43 @@
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E19" s="7"/>
     </row>
@@ -1264,13 +1285,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="7"/>
     </row>
@@ -1279,13 +1300,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="7"/>
     </row>
@@ -1294,13 +1315,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="7"/>
     </row>
@@ -1309,16 +1330,16 @@
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1326,67 +1347,67 @@
         <v>3</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1394,95 +1415,95 @@
         <v>16</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1490,95 +1511,95 @@
         <v>10</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="C39" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1592,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" activeCellId="1" sqref="C27 C29"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1619,33 +1640,33 @@
     </row>
     <row r="3" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -1654,16 +1675,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1671,13 +1692,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -1686,13 +1707,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -1701,31 +1722,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1733,13 +1754,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="7"/>
     </row>
@@ -1748,13 +1769,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -1763,13 +1784,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -1778,13 +1799,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -1793,13 +1814,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -1812,201 +1833,199 @@
     </row>
     <row r="17" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="18">
-        <v>1</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>53</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>30</v>
+        <v>154</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>30</v>
+        <v>156</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>28</v>
+        <v>157</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>83</v>
@@ -2014,183 +2033,202 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>33</v>
+      <c r="C29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="18" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A34" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A33" s="6" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="B35" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>55</v>
+        <v>27</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+        <v>162</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="18">
-        <v>1</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>75</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="18">
+        <v>1</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B42" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="11" t="s">
+      <c r="C42" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2203,10 +2241,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2220,7 +2258,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.95">
       <c r="A1" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -2236,33 +2274,33 @@
     </row>
     <row r="3" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>37</v>
+        <v>98</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -2271,13 +2309,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -2286,13 +2324,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -2301,13 +2339,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -2316,28 +2354,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -2346,103 +2384,103 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -2451,75 +2489,75 @@
         <v>11</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>37</v>
+        <v>98</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E23" s="5"/>
     </row>
@@ -2528,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="5"/>
     </row>
@@ -2543,13 +2581,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -2558,13 +2596,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -2573,28 +2611,28 @@
         <v>7</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="5"/>
     </row>
@@ -2603,103 +2641,103 @@
         <v>9</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" s="5"/>
     </row>
@@ -2708,45 +2746,302 @@
         <v>11</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="42" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="5"/>
+      <c r="B57" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
